--- a/trained_models_old_clean/MLP/iris/results_table.xlsx
+++ b/trained_models_old_clean/MLP/iris/results_table.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.4274478353845527, 'beta_2': 0.729060367703723, 'epsilon': 0.05766126202404963, 'learning_rate': 'invscaling', 'momentum': 0.6907612738337751, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.21980439785647188}</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.45135521106639614, 'beta_2': 0.7990301009575822, 'epsilon': 0.9595618757212115, 'learning_rate': 'constant', 'momentum': 0.07799281787582457, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.06659633223555117}</t>
+          <t>{'beta_1': 0.25978630022382754, 'beta_2': 0.1458274170667079, 'epsilon': 0.36800399160826824, 'learning_rate': 'invscaling', 'momentum': 0.28783376214007295, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.18621159518672326}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9709730574971661, 'beta_2': 0.8773152778758297, 'epsilon': 0.5091147523431803, 'learning_rate': 'constant', 'momentum': 0.604845519745046, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.44171092124884537}</t>
+          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28323532773558446, 'beta_2': 0.3795470289442204, 'epsilon': 0.18096981077516613, 'learning_rate': 'constant', 'momentum': 0.08637698037064123, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7774075618487531}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16350940116725574, 'beta_2': 0.25999228591183354, 'epsilon': 0.370846170726364, 'learning_rate': 'adaptive', 'momentum': 0.26810926491253906, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.039210539213897055}</t>
+          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8571206004221198, 'beta_2': 0.45285074832438077, 'epsilon': 0.43389557352322544, 'learning_rate': 'constant', 'momentum': 0.40746848288962145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9798641184223712}</t>
+          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4601361519058461, 'beta_2': 0.9657710060996425, 'epsilon': 0.5341734662421768, 'learning_rate': 'adaptive', 'momentum': 0.6197720842759777, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.09884595187690437}</t>
+          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
+          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9605927561922608, 'beta_2': 0.12141669440209722, 'epsilon': 0.09906428797137679, 'learning_rate': 'invscaling', 'momentum': 0.6224848742605995, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.603038139426371}</t>
+          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="14">
@@ -936,7 +936,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9709730574971661, 'beta_2': 0.8773152778758297, 'epsilon': 0.5091147523431803, 'learning_rate': 'constant', 'momentum': 0.604845519745046, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.44171092124884537}</t>
+          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.2826086956521739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
+          <t>{'beta_1': 0.5366329578207587, 'beta_2': 0.1999896983202477, 'epsilon': 0.6729796163150507, 'learning_rate': 'adaptive', 'momentum': 0.26668018193606735, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5283199925726499}</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
+          <t>{'beta_1': 0.6784115250117865, 'beta_2': 0.8634171612435584, 'epsilon': 0.7500934013828031, 'learning_rate': 'invscaling', 'momentum': 0.31194499547960186, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20984374897512215}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="21">
